--- a/data/genius_Bushido_Deutschland-gib-mir-ein-mic.xlsx
+++ b/data/genius_Bushido_Deutschland-gib-mir-ein-mic.xlsx
@@ -407,7 +407,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Samples][?]„Es war nur ein Augenblick“„Schau mich an, siehst du, was aus mir wird?Es ist deine Schuld“„Sonny Black ist der Boss“„Ihr seid ruhig, wenn ich rede“„Denn eine Kugel reicht, damit du weißt, wie hart Beton ist“„Ihr guckt Yo! MTV Raps und macht den gleichen Scheiß auf deutsch“„Bushido“„Oh nein! Guck' es tut mir so Leid“„Dein Gangster-Nutten-Fick-Rap ist nur Spaß, Junge“„Ich bin der einzige Gangster auf Deutsch(Sonny Black)“„Junge, wir sind Weltstars“„Ihr wartet drauf, wann bringt der Typ wieder was hartes raus“„Morgеn ist ein neuer Tag (Kopf hoch)“„Ich mach nur еinen Take und ganz Deutschland steht drauf“„Wie ein Engel wirst du kommen, um mir den Kummer zu nehmen“„King of Kingz“„Das Leben ist ein Arschfick“„Meine Pfade sind staubig und meine Augen tränen“„Ich mach den Sound für den Hof im Knast“„Ich bin ein Ersguterjunge und ihr Opfer tot“„Ich brauch' nur ein Blatt Papier um in der Juice zu stehen“„Gib mir ne MPC und ich mach' dir nen Beat“„Denn ich war nie ein Rapper, ich wollt' niemals anständig sein“„Sie schreien, hey, ich bin der EndgegnerUnd sie schr-“„Ich bin immer noch ich“</t>
+          <t>[Samples]
+[?]
+„Es war nur ein Augenblick“„Schau mich an, siehst du, was aus mir wird?Es ist deine Schuld“
+„Sonny Black ist der Boss“„Ihr seid ruhig, wenn ich rede“
+„Denn eine Kugel reicht, damit du weißt, wie hart Beton ist“
+„Ihr guckt Yo! MTV Raps und macht den gleichen Scheiß auf deutsch“„Bushido“
+„Oh nein! Guck' es tut mir so Leid“„Dein Gangster-Nutten-Fick-Rap ist nur Spaß, Junge“
+„Ich bin der einzige Gangster auf Deutsch(Sonny Black)“„Junge, wir sind Weltstars“
+„Ihr wartet drauf, wann bringt der Typ wieder was hartes raus“
+„Morgеn ist ein neuer Tag (Kopf hoch)“„Ich mach nur еinen Take und ganz Deutschland steht drauf“
+„Wie ein Engel wirst du kommen, um mir den Kummer zu nehmen“„King of Kingz“
+„Das Leben ist ein Arschfick“„Meine Pfade sind staubig und meine Augen tränen“
+„Ich mach den Sound für den Hof im Knast“„Ich bin ein Ersguterjunge und ihr Opfer tot“
+„Ich brauch' nur ein Blatt Papier um in der Juice zu stehen“„Gib mir ne MPC und ich mach' dir nen Beat“
+„Denn ich war nie ein Rapper, ich wollt' niemals anständig sein“
+„Sie schreien, hey, ich bin der EndgegnerUnd sie schr-“
+„Ich bin immer noch ich“</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -451,9 +467,82 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Berlin[Bushido]Okay, Berlin, das ist euer Song, nur für euch![Part 1]Vollkontakt, wer hat Angst, guck mich an, ich bin draufKreuz die Finger für ein W, was ist jetzt, du bist outGeh, erlebe meine Stadt, friss den Bordstein du KeckFick auf deinen scheiß Rap, für deinen neuen scheiss TrackIch zerfleisch dich, einfach weil du Toy bistSchreib aus deinem Leben und sieh ein, keiner freut sichRuft mich an, lasst euch alle Titten wachsenSagt mein Style liegt im Trend, doch ich fick nicht mit euch SpastenEs ist Benz Klasse S, scheiß auf dein Geschäft, es ist Aggro WestDeutscher Rap hat jetzt PechAmphetamin, es gibt nur ein BerlinNeben mir sieht alles whack aus, weil keiner auf den Dreck bouncedBorn to kill, du machst alles chillWenn ich rappe, weiß ich ganz genau, deine Stadt steht stillIch bin elitär und auf keinen Fall dein KumpelBerlin wird wieder hart, denn wir verkloppen jede (...)[Hook]Berlin - Es ist meine Stadt, mein BezirkDu Nutte kannst nach Hause gehen, ab jetzt ist es Hardcore, du OpferBerli - Es ist meine Stadt, für euch gibt's keine PartyHier darf keiner tanzen, meine Stadt ist jetzt Ghetto
-[Bridge]Geh wohin du herkommst, mach dass du nicht wieder kommstTempelhof, Schöneberg, der, der deine Lieder bumstDenk an mich[Bushido &amp; Saad]Ihr seid verrückt, Berlin!Wo sind die Hände, Berlin, seid ihr müde oder was?[Part 1]Denk an mich, wenn deine Freundin ganz weit weg istUnd du kein Geld für Essen hast und jeden Tag nur Dreck frisstDenk an mich, wenn deine Eltern nicht mehr da sindUnd wenn dich deine besten Freunde auf einmal verratenDenk an mich, wenn es irgendwas zu denken gibt!Denk an mich, wenn dein Leben nur bedenklich ist!Denk an mich, wenn du sogar deine Schule verkackstObwohl du jeden Tag lernst und deine Schule nicht schaffstDenk an mich, wenn du ein ganz normaler Mensch bistWenn du merkst, dass du ganz schwer zu lenken bistWenn du der Meinung bist ganz alleine dazustehenDenk an mich, wenn jemand sagt du bist hart im NehmenDenk an mich, wenn sich auf einmal alles wendetWenn auf einmal dein Leben doch nicht endetDenk an mich, wenn ich sage, dass die Hoffnung nicht stirbtMit der Hoffnung, dass Gott dich erhört
-[Hook x2]Denk an mich, wenn du down bist und dich jeder disstDenk an mich, wenn jeder will, dass du ein Schläger bistDenk an mich, wenn du alleine durch dein Leben gehstMach deine Augen zu, mein Freund und denk an mich[Part 2]Denk an mich, wenn auf einmal alles gut wirdDenk an mich, wenn dich all dieser Ruhm nervtDenk dran, dass du Gott immer danken musstUnd dass du immer nach Familie und Verwandten guckstDenk dran, dass es Kranke auf der Welt gibtDenk an mich, wenn du armen Menschen Geld gibstWenn du fest dran glaubst, wird dein Traum wahrDenk an mich, Homie, dein Leben wird traumhaftWenn du was erreichen willst, musst du hart kämpfenGib nicht auf, mein Freund, lass dich nicht abbremsenDenk an mich, wenn du heute wieder jemand bistDenk an mich, wenn du weißt, wer der Krieger istDenk dran, dass du immer wieder denken musstDein ganzes Leben lang immer wieder denken musstDenk an mich, wenn ich sage, dass die Hoffnung nicht stirbtMit der Hoffnung, dass Gott dich erhört[Hook x2]Denk an mich, wenn du down bist und dich jeder disstDenk an mich, wenn jeder will, dass du ein Schläger bistDenk an mich, wenn du alleine durch dein Leben gehstMach deine Augen zu, mein Freund und denk an mich</t>
+          <t>Berlin
+[Bushido]
+Okay, Berlin, das ist euer Song, nur für euch!
+[Part 1]
+Vollkontakt, wer hat Angst, guck mich an, ich bin drauf
+Kreuz die Finger für ein W, was ist jetzt, du bist out
+Geh, erlebe meine Stadt, friss den Bordstein du Keck
+Fick auf deinen scheiß Rap, für deinen neuen scheiss Track
+Ich zerfleisch dich, einfach weil du Toy bist
+Schreib aus deinem Leben und sieh ein, keiner freut sich
+Ruft mich an, lasst euch alle Titten wachsen
+Sagt mein Style liegt im Trend, doch ich fick nicht mit euch Spasten
+Es ist Benz Klasse S, scheiß auf dein Geschäft, es ist Aggro West
+Deutscher Rap hat jetzt Pech
+Amphetamin, es gibt nur ein Berlin
+Neben mir sieht alles whack aus, weil keiner auf den Dreck bounced
+Born to kill, du machst alles chill
+Wenn ich rappe, weiß ich ganz genau, deine Stadt steht still
+Ich bin elitär und auf keinen Fall dein Kumpel
+Berlin wird wieder hart, denn wir verkloppen jede (...)
+[Hook]
+Berlin - Es ist meine Stadt, mein Bezirk
+Du Nutte kannst nach Hause gehen, ab jetzt ist es Hardcore, du Opfer
+Berli - Es ist meine Stadt, für euch gibt's keine Party
+Hier darf keiner tanzen, meine Stadt ist jetzt Ghetto
+[Bridge]
+Geh wohin du herkommst, mach dass du nicht wieder kommst
+Tempelhof, Schöneberg, der, der deine Lieder bumst
+Denk an mich
+[Bushido &amp;Saad]
+Ihr seid verrückt, Berlin!
+Wo sind die Hände, Berlin, seid ihr müde oder was?
+[Part 1]
+Denk an mich, wenn deine Freundin ganz weit weg ist
+Und du kein Geld für Essen hast und jeden Tag nur Dreck frisst
+Denk an mich, wenn deine Eltern nicht mehr da sind
+Und wenn dich deine besten Freunde auf einmal verraten
+Denk an mich, wenn es irgendwas zu denken gibt!
+Denk an mich, wenn dein Leben nur bedenklich ist!
+Denk an mich, wenn du sogar deine Schule verkackst
+Obwohl du jeden Tag lernst und deine Schule nicht schaffst
+Denk an mich, wenn du ein ganz normaler Mensch bist
+Wenn du merkst, dass du ganz schwer zu lenken bist
+Wenn du der Meinung bist ganz alleine dazustehen
+Denk an mich, wenn jemand sagt du bist hart im Nehmen
+Denk an mich, wenn sich auf einmal alles wendet
+Wenn auf einmal dein Leben doch nicht endet
+Denk an mich, wenn ich sage, dass die Hoffnung nicht stirbt
+Mit der Hoffnung, dassGott dich erhört
+[Hook x2]
+Denk an mich, wenn du down bist und dich jeder disst
+Denk an mich, wenn jeder will, dass du ein Schläger bist
+Denk an mich, wenn du alleine durch dein Leben gehst
+Mach deine Augen zu, mein Freund und denk an mich
+[Part 2]
+Denk an mich, wenn auf einmal alles gut wird
+Denk an mich, wenn dich all dieser Ruhm nervt
+Denk dran, dass du Gott immer danken musst
+Und dass du immer nach Familie und Verwandten guckst
+Denk dran, dass es Kranke auf der Welt gibt
+Denk an mich, wenn du armen Menschen Geld gibst
+Wenn du fest dran glaubst, wird dein Traum wahr
+Denk an mich, Homie, dein Leben wird traumhaft
+Wenn du was erreichen willst, musst du hart kämpfen
+Gib nicht auf, mein Freund, lass dich nicht abbremsen
+Denk an mich, wenn du heute wieder jemand bist
+Denk an mich, wenn du weißt, wer der Krieger ist
+Denk dran, dass du immer wieder denken musst
+Dein ganzes Leben lang immer wieder denken musst
+Denk an mich, wenn ich sage, dass die Hoffnung nicht stirbt
+Mit der Hoffnung, dass Gott dich erhört
+[Hook x2]
+Denk an mich, wenn du down bist und dich jeder disst
+Denk an mich, wenn jeder will, dass du ein Schläger bist
+Denk an mich, wenn du alleine durch dein Leben gehst
+Mach deine Augen zu, mein Freund und denk an mich</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
